--- a/other/products.xlsx
+++ b/other/products.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>name</t>
   </si>
@@ -48,40 +48,37 @@
     <t>Россия</t>
   </si>
   <si>
-    <t>Диван Атланта</t>
-  </si>
-  <si>
-    <t>Рогожка</t>
-  </si>
-  <si>
-    <t>226/87/79</t>
-  </si>
-  <si>
-    <t>Строгие формы дивана Атланта смягчены за счет пышных приспинных подушек, рельеф которых сформирован при помощи утяжек. Твердые накладки на боковинах выполняют роль придиванного столика: на них можно разместить небольшой поднос с кофейными чашками, положить книгу или заряжающийся гаджет.</t>
-  </si>
-  <si>
-    <t>Диван Парма</t>
-  </si>
-  <si>
-    <t>195/80/78</t>
-  </si>
-  <si>
-    <t>Диван Мэдисон</t>
-  </si>
-  <si>
-    <t>253/80/121</t>
-  </si>
-  <si>
-    <t>Рогожка/ткань</t>
-  </si>
-  <si>
-    <t>Вельвет/натуральное дерево/ткань</t>
-  </si>
-  <si>
-    <t>Диван-кровать Мэдисон с системой трансформации «Еврокнижка» («Альтернатива») предназначен для ежедневного использования. Выкатные сиденья и откидные спинки образуют спальное место. Благодаря системе трансформации диван предоставляет широкую двуспальную кровать со спальным местом 160 х 200 см. Оптимальные условия для комфортного отдыха обеспечивает независимый пружинный блок в сочетании с эластичным пенополиуретаном - мягкие составляющие дивана. Диван Мэдисон состоит из двух частей, которые трансформируются независимо друг от друга. Это преимущество позволяет, при необходимости, создать из обычного дивана угловой. Полноценное спальное место создаётся в том случае, если разложены обе части диван-кровати.</t>
-  </si>
-  <si>
-    <t>Диван-кровать Парма выполнен в строгом минималистичном стиле. Все его поверхности имеют правильную геометрическую форму. Лаконичный и элегантный дизайн визуально не перегружает пространство, а пастельные тона обивки будут гармонично сочетаться с широкой гаммой других оттенков в интерьере. Эта модель доступна только в тех вариантах обивки, которые представлены в нашем ассортименте.</t>
+    <t>Стол раздвижной Хьюстон</t>
+  </si>
+  <si>
+    <t>Раздвижной кухонный стол Хьюстон придется по душе тем, кто любит принимать гостей и устраивать семейные праздники. Модель выполнена в современном стиле, выделяется на фоне аналогов оригинальной комбинированной расцветкой и широкими устойчивыми опорами L-образного сечения. Особенно эффектно такой стол будет смотреться в помещении, оформленном в стиле лофт. Основные элементы конструкции изготовлены из ЛДСП с торцевой кромкой ПВХ. Модель имеет направляющие для ручного выдвижения боковых вставок, скрытых в столешнице. Это позволяет при необходимости создать дополнительные посадочные места, а затем собрать стол снова, чтобы он не занимал лишнее пространство.</t>
+  </si>
+  <si>
+    <t>ЛДСП</t>
+  </si>
+  <si>
+    <t>79/73/79</t>
+  </si>
+  <si>
+    <t>Стол Aqua</t>
+  </si>
+  <si>
+    <t>Стол Aqua – оригинальное решение для обустройства обеденной зоны или уголка отдыха. Модель, выдержанная в лаконичном стиле, подойдет как для классического, так и для современного интерьера. Каркас изделия выполнен из качественного металла. Столешница округлой формы изготовлена из ЛДСП. Основание крепится к столешнице при помощи саморезов. Поверхность стола оттенка орех тиеполо гармонично смотрится с черными ножками, которые словно собраны в эффектный узел. Для поддержания чистоты мебели рекомендуется использовать мягкую ткань.</t>
+  </si>
+  <si>
+    <t>Металл/ЛДСП</t>
+  </si>
+  <si>
+    <t>90/79/90</t>
+  </si>
+  <si>
+    <t>Стол Прайм</t>
+  </si>
+  <si>
+    <t>Стол Прайм из ЛДСП нежных трюфельных оттенков идеально подойдет для оформления элегантной обеденной зоны на любой кухне. Изделие отличается устойчивостью и компактностью, что дает возможность разместить его даже в помещении небольшой площади, Столешница классической прямоугольной формы гармонично сочетается с ножками, имеющими в сечении оригинальный угловой профиль. Особенно хорошо стол Прайм смотрится в комплекте с угловой скамьей и табуретами одноименной коллекции.</t>
+  </si>
+  <si>
+    <t>110/72/60</t>
   </si>
 </sst>
 </file>
@@ -421,7 +418,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -432,23 +429,23 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="47.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="24.77734375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="4" customWidth="1"/>
     <col min="7" max="7" width="16" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="2"/>
+    <col min="8" max="8" width="10.28515625" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -474,113 +471,113 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="112.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="6">
-        <v>17990</v>
+        <v>6199</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="6">
-        <v>72.5</v>
+        <v>31.8</v>
       </c>
       <c r="H2" s="9">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="142.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C3" s="6">
-        <v>14990</v>
+        <v>6999</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G3" s="6">
-        <v>40</v>
+        <v>16.5</v>
       </c>
       <c r="H3" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="253.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="253.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C4" s="5">
-        <v>49990</v>
+        <v>5799</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>18</v>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G4" s="5">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="H4" s="8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
     </row>
   </sheetData>
